--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aricharddaniel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git--\Venture_Vultures-OrangeHRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60059F93-C7FD-41A7-8E20-3EBE163BF7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296BD12-C2D5-47AD-88C6-4E1F6618BA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20CDB917-152F-46A2-9972-C76AB3AFC79B}"/>
   </bookViews>
@@ -114,16 +114,16 @@
     <t>Newdata</t>
   </si>
   <si>
-    <t>java24</t>
-  </si>
-  <si>
-    <t>venkaes573337</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sceh2ince</t>
-  </si>
-  <si>
-    <t>Medical Leave4</t>
+    <t>java25</t>
+  </si>
+  <si>
+    <t>venkaes553337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sceh3ince</t>
+  </si>
+  <si>
+    <t>Medical Leave5</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git--\Venture_Vultures-OrangeHRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296BD12-C2D5-47AD-88C6-4E1F6618BA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20817E2A-3D8C-4F92-B363-8440BC7E934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20CDB917-152F-46A2-9972-C76AB3AFC79B}"/>
   </bookViews>
@@ -114,16 +114,16 @@
     <t>Newdata</t>
   </si>
   <si>
-    <t>java25</t>
-  </si>
-  <si>
-    <t>venkaes553337</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sceh3ince</t>
-  </si>
-  <si>
-    <t>Medical Leave5</t>
+    <t>java26</t>
+  </si>
+  <si>
+    <t>venkaes555337</t>
+  </si>
+  <si>
+    <t>Medical Leave8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sceh5ince</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,13 +615,13 @@
         <v>22101</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
